--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -50,9 +49,6 @@
   </si>
   <si>
     <t>钻石商店中，单价货币id为1002.金币商店为1003；杂货为1003</t>
-  </si>
-  <si>
-    <t>王国纪元录中繁荣值递增，对应玩家达到等级递增（不高于开放等级），王国事件抽取，1-4天固定，后续（999999）1-4个事件随机</t>
   </si>
   <si>
     <t>场景</t>
@@ -156,6 +152,16 @@
   </si>
   <si>
     <t>排名越大的。机器人实际等级越低。个人竞技场每日奖励排名越大，2001的奖励数值越小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国纪元录中繁荣值递增，对应玩家达到等级递增（不高于开放等级），王国事件抽取，1-4天固定，后续（999999）1-4个事件随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 检查等级的唯一性和从小到大的顺序排列
+2. 检查每一列中数据是否按照从小打到的顺序排列
+3. 打印出出错的位置(针对所有的查询都是查第一个错误，后面的错误直接跳出，因为这种错误都是连锁式的，找到一个错误，策划修改之后再次查询一下）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +264,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,15 +594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="97" customWidth="1"/>
+    <col min="3" max="3" width="111.875" customWidth="1"/>
     <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
@@ -597,22 +612,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -620,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -636,13 +651,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -652,13 +667,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -667,11 +682,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -682,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -695,27 +710,29 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -723,8 +740,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -737,8 +754,8 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -752,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -766,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -780,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -794,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -808,10 +825,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -160,7 +160,13 @@
   </si>
   <si>
     <t>1. 检查等级的唯一性和从小到大的顺序排列
-2. 检查每一列中数据是否按照从小打到的顺序排列
+2. 检查属性列或者修正列中数据是否按照从小打到的顺序排列
+3. 打印出出错的位置(针对所有的查询都是查第一个错误，后面的错误直接跳出，因为这种错误都是连锁式的，找到一个错误，策划修改之后再次查询一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 检查等级（转生等级，玩家等级，备注-显示等级）的唯一性和从小到大的顺序排列
+2. 检查升级消耗经验列中数据是否按照从小打到的顺序排列
 3. 打印出出错的位置(针对所有的查询都是查第一个错误，后面的错误直接跳出，因为这种错误都是连锁式的，找到一个错误，策划修改之后再次查询一下）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,7 +601,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,7 +756,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -760,7 +766,9 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -168,6 +168,20 @@
     <t>1. 检查等级（转生等级，玩家等级，备注-显示等级）的唯一性和从小到大的顺序排列
 2. 检查升级消耗经验列中数据是否按照从小打到的顺序排列
 3. 打印出出错的位置(针对所有的查询都是查第一个错误，后面的错误直接跳出，因为这种错误都是连锁式的，找到一个错误，策划修改之后再次查询一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 检查税率不能为0
+2. 价格区间的无法检查，没有参考基准价格和变化范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有检查规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查召唤场景肯定是332101
+2.备注等级相关检查无法做，没有固定的规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +293,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,15 +626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="111.875" customWidth="1"/>
+    <col min="3" max="3" width="111.125" customWidth="1"/>
     <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
@@ -672,7 +698,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -708,7 +734,9 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -742,17 +770,19 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -760,7 +790,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -776,7 +806,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -786,17 +816,19 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -182,6 +182,13 @@
   <si>
     <t>1.检查召唤场景肯定是332101
 2.备注等级相关检查无法做，没有固定的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 检查技能点序列时连续的，并且是惟一的
+2. 技能点转换消耗绑银的逐渐增加的
+3. 技能点转换消耗经验是逐渐增加的
+4. 打印出异常信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +312,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,17 +818,19 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>排名越大的。机器人实际等级越低。个人竞技场每日奖励排名越大，2001的奖励数值越小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国纪元录中繁荣值递增，对应玩家达到等级递增（不高于开放等级），王国事件抽取，1-4天固定，后续（999999）1-4个事件随机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +185,28 @@
 2. 技能点转换消耗绑银的逐渐增加的
 3. 技能点转换消耗经验是逐渐增加的
 4. 打印出异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国纪元录中繁荣值递增，对应玩家达到等级递增（不高于开放等级），王国事件抽取，1-4天固定，后续（999999）1-4个事件随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 钻石商店单价货币类型可以正常检查
+2. 金币商店的单价货币类型可以正常检查
+3. 杂货物品单价货币类型可以正常检查
+4. 单价货币类型为空的时候，报出异常
+4. 打印出错误的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 升级需要繁荣值是递增的
+2. 玩家领奖等级是递增的
+3. 玩家的领奖最高限制等级，不高于目前游戏玩家可以达到的最高等级
+4. 王国事件1--4天固定不变（没有检查固定是哪个值，只检查了1~~7 的值是完全一样的）
+5. 后续的999999是4个时间随机
+6. 分表打印出每张表中存在的错误信息
+7. 数据不为空导表程序已经检查，出错时我会在setuplog中打印出出错信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +661,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,7 +669,7 @@
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="111.125" customWidth="1"/>
-    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
@@ -751,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -781,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -797,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -813,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -829,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -845,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -864,31 +882,35 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.检查配置的等级不能重复（这里没有做导表检查）
 2.检查配置的ID不能重复（这里没有做导表检查）
 2.检查不同等级对应的返还物品，等级高的不能少于等级低的</t>
@@ -197,6 +193,10 @@
 3. 杂货物品单价货币类型可以正常检查
 4. 单价货币类型为空的时候，报出异常
 4. 打印出错误的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +206,8 @@
 4. 王国事件1--4天固定不变（没有检查固定是哪个值，只检查了1~~7 的值是完全一样的）
 5. 后续的999999是4个时间随机
 6. 分表打印出每张表中存在的错误信息
-7. 数据不为空导表程序已经检查，出错时我会在setuplog中打印出出错信息</t>
+7. 数据不为空导表程序已经检查，出错时我会在setuplog中打印出出错信息
+8. 王国事件开启时间不能重复检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +662,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -749,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -769,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -782,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -799,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -815,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -831,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -847,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -863,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -893,12 +894,12 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -906,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>44</v>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -208,6 +208,16 @@
 6. 分表打印出每张表中存在的错误信息
 7. 数据不为空导表程序已经检查，出错时我会在setuplog中打印出出错信息
 8. 王国事件开启时间不能重复检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 对机器人表中的排名进行连续性检查，防止出现断点
+2. 对机器人表中的等级进行检查，从大到小排序
+3. 对机器人表中的机器人实际等级进行检查，从大到小排序
+4. 对每日奖励中排名进行连续性检查，防止出现断点
+5. 对每日奖励中的积分奖励进行检查，从大到小排序
+6. 对每日奖励中的积分奖励ID进行检查，不是2001的报出错误
+7. 打印错误信息到文件中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,15 +671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="111.125" customWidth="1"/>
+    <col min="3" max="3" width="92.25" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
@@ -775,7 +785,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -785,7 +795,9 @@
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -903,7 +915,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排名越大的。机器人实际等级越低。个人竞技场每日奖励排名越大，2001的奖励数值越小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 检查等级的唯一性和从小到大的顺序排列
 2. 检查属性列或者修正列中数据是否按照从小打到的顺序排列
 3. 打印出出错的位置(针对所有的查询都是查第一个错误，后面的错误直接跳出，因为这种错误都是连锁式的，找到一个错误，策划修改之后再次查询一下）</t>
@@ -218,6 +214,10 @@
 5. 对每日奖励中的积分奖励进行检查，从大到小排序
 6. 对每日奖励中的积分奖励ID进行检查，不是2001的报出错误
 7. 打印错误信息到文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名越大的。机器人实际等级越低。个人竞技场每日奖励排名越大，2001的奖励数值越小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +672,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -780,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -789,14 +789,14 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -906,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -919,10 +919,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
@@ -140,10 +140,6 @@
     <t>1.检查配置的等级不能重复（这里没有做导表检查）
 2.检查配置的ID不能重复（这里没有做导表检查）
 2.检查不同等级对应的返还物品，等级高的不能少于等级低的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID不能重复。对应ID后续配置人民币配置，出售物品，每次赠送物品列表=1:10，1.出售物品格式，8|60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,12 +216,42 @@
     <t>排名越大的。机器人实际等级越低。个人竞技场每日奖励排名越大，2001的奖励数值越小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>没有固定规则，写死检查比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID不能重复。对应ID后续配置人民币配置，出售物品，每次赠送物品列表=1:10，1.出售物品格式，8|60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 对商品ID(字符串、数字）的唯一性进行检查
+2. 对商品ID（数字）进行连续性检查
+3. 对充值积分，人民币，商品描述，出售物品中的数值进行检查，几个数值是相同的或者是X10 的关系
+4. 对出售物品ID进行检查，目前要求必须是8
+5. 打印出错误信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注：只对充值商品列表中前6行进行检查，其他的没有统一格式，不好检查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +276,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,19 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,16 +369,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,22 +713,22 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="92.25" customWidth="1"/>
-    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.375" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -707,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -723,7 +764,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -739,7 +780,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -755,53 +796,55 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="108">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="94.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="67.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -812,122 +855,124 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="81">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="54">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" s="11" customFormat="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="67.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="135">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:3">
       <c r="C23" s="4"/>
     </row>
   </sheetData>
@@ -945,7 +990,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -713,7 +713,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/开发情况.xlsx
+++ b/开发情况.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>场景最小等级显示（一般是无），开放PVP限制需要打印出来确认</t>
   </si>
   <si>
-    <t>等级为索引，等级越高的，所有行的属性高于等级低的</t>
-  </si>
-  <si>
     <t>税率不能为0；金色品质的物品看能不能做个价格规则区间的检查</t>
   </si>
   <si>
@@ -115,10 +112,6 @@
   </si>
   <si>
     <t>（需要确认下是否可以写规则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,10 +150,6 @@
   <si>
     <t>1. 检查税率不能为0
 2. 价格区间的无法检查，没有参考基准价格和变化范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有检查规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,33 +206,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品ID不能重复。对应ID后续配置人民币配置，出售物品，每次赠送物品列表=1:10，1.出售物品格式，8|60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C充值.xls(sheetName:[充值商品列表,提审服充值商品列表])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G个人竞技场.xls(sheetName:[个人竞技场_机器人,个人竞技场_每日奖励])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级为索引，等级越高的，所有行的属性高于等级低的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C场景.xls(sheetName:[场景列表])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C称号.xls(sheetName:[称号列表])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C成长基金.xls(sheetName:[成长基金等级])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G怪物属性.xls(sheetName:[怪物等级属性表])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J交易.xls(sheetName:[交易物品])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J角色等级.xls(sheetName:[转生升级])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J天赋技能.xls(sheetName:[天赋技能购买])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc挑战.xls(sheetName:[npc挑战])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD商店.xls(sheetName:[ShopGoods_钻石,ShopGoods_金币,ShopGoods_杂货])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W王国纪元.xls(sheetName:[王国纪元录,王国事件抽取])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>没有固定规则，写死检查比较麻烦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品ID不能重复。对应ID后续配置人民币配置，出售物品，每次赠送物品列表=1:10，1.出售物品格式，8|60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 对商品ID(字符串、数字）的唯一性进行检查
+    <t>1. 对商品ID(字符串、数字）的唯一性进行检查
 2. 对商品ID（数字）进行连续性检查
 3. 对充值积分，人民币，商品描述，出售物品中的数值进行检查，几个数值是相同的或者是X10 的关系
 4. 对出售物品ID进行检查，目前要求必须是8
-5. 打印出错误信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注：只对充值商品列表中前6行进行检查，其他的没有统一格式，不好检查</t>
-    </r>
+5. 打印出错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划没有检查规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划没有检查规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +334,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -347,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,6 +433,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,270 +766,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="98.375" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="77.125" customWidth="1"/>
+    <col min="4" max="4" width="51.875" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5">
+    </row>
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="27">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.5">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="108">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" s="11" customFormat="1">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="94.5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="67.5">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="27">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="81">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="54">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="27">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="67.5">
+      <c r="F13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="135">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -990,7 +1109,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
